--- a/surveysbr.xlsx
+++ b/surveysbr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\dashboardelectoral\shiny_workshops\Brasil2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\dashboardelectoral\shiny_workshops\Brasil2022\Brasil2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC882A3-F440-4FA9-BE81-553543D5E7FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3979B-8D06-4799-9632-3A62C953E339}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{D24A548C-E2D0-43D6-BDD4-6195DD4AF214}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -47,30 +47,6 @@
     <t>IPESPE</t>
   </si>
   <si>
-    <t>Lula</t>
-  </si>
-  <si>
-    <t>Bolsonaro</t>
-  </si>
-  <si>
-    <t>Moro</t>
-  </si>
-  <si>
-    <t>Doria</t>
-  </si>
-  <si>
-    <t>Outro</t>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>Gomes</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -111,6 +87,33 @@
   </si>
   <si>
     <t xml:space="preserve">First-round </t>
+  </si>
+  <si>
+    <t>Lula_DaSilva</t>
+  </si>
+  <si>
+    <t>Jair_Bolsonaro</t>
+  </si>
+  <si>
+    <t>Ciro_Gomes</t>
+  </si>
+  <si>
+    <t>https://www.cnnbrasil.com.br/politica/pesquisa-ipespe-lula-tem-44-bolsonaro-32-ciro-8-doria-4-tebet-e-janones-2/</t>
+  </si>
+  <si>
+    <t>Joao_Doria</t>
+  </si>
+  <si>
+    <t>Outro_</t>
+  </si>
+  <si>
+    <t>BN_</t>
+  </si>
+  <si>
+    <t>NR_</t>
+  </si>
+  <si>
+    <t>Sergio_Moro</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C92C1-C3AC-4211-A17B-064591163E9B}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,34 +493,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -555,7 +558,7 @@
         <v>3666</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -593,7 +596,7 @@
         <v>2000</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -631,7 +634,7 @@
         <v>2000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -669,7 +672,7 @@
         <v>1000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -707,7 +710,7 @@
         <v>2000</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -745,7 +748,7 @@
         <v>2556</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -780,7 +783,7 @@
         <v>2000</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -815,7 +818,7 @@
         <v>1000</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -823,7 +826,7 @@
         <v>44676</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0.41</v>
@@ -850,7 +853,7 @@
         <v>2000</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -885,7 +888,7 @@
         <v>1000</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -920,7 +923,7 @@
         <v>2000</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -928,7 +931,7 @@
         <v>44789</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -936,7 +939,42 @@
         <v>44836</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.44</v>
+      </c>
+      <c r="D15">
+        <v>0.32</v>
+      </c>
+      <c r="F15">
+        <v>0.08</v>
+      </c>
+      <c r="G15">
+        <v>0.04</v>
+      </c>
+      <c r="H15">
+        <v>0.04</v>
+      </c>
+      <c r="I15">
+        <v>0.06</v>
+      </c>
+      <c r="J15">
+        <v>0.02</v>
+      </c>
+      <c r="K15">
+        <v>1000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/surveysbr.xlsx
+++ b/surveysbr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\dashboardelectoral\shiny_workshops\Brasil2022\Brasil2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3979B-8D06-4799-9632-3A62C953E339}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A50E9B1-6300-4CA5-9E0C-452FBC3BFE7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{D24A548C-E2D0-43D6-BDD4-6195DD4AF214}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>date</t>
   </si>
@@ -68,9 +68,6 @@
     <t>https://www.cnnbrasil.com.br/politica/pesquisa-quaest-genial-lula-tem-45-bolsonaro-23-e-moro-9/</t>
   </si>
   <si>
-    <t>https://www.cnnbrasil.com.br/politica/pesquisa-ipespe-lula-tem-45-bolsonaro-31-ciro-8-doria-3-janones-e-tebet-2/</t>
-  </si>
-  <si>
     <t>https://www.infomoney.com.br/politica/lula-lidera-corrida-ao-planalto-com-41-bolsonaro-soma-32-diz-fsb-pesquisa/</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Ciro_Gomes</t>
   </si>
   <si>
-    <t>https://www.cnnbrasil.com.br/politica/pesquisa-ipespe-lula-tem-44-bolsonaro-32-ciro-8-doria-4-tebet-e-janones-2/</t>
-  </si>
-  <si>
     <t>Joao_Doria</t>
   </si>
   <si>
@@ -114,6 +108,24 @@
   </si>
   <si>
     <t>Sergio_Moro</t>
+  </si>
+  <si>
+    <t>https://www.uol.com.br/eleicoes/2022/05/26/datafolha-pesquisa-maio-2022-lula-bolsonaro-ciro.htm / https://g1.globo.com/politica/eleicoes/2022/pesquisa-eleitoral/noticia/2022/05/27/pesquisa-datafolha-de-26-de-maio-para-presidente-por-sexo-idade-escolaridade-renda-regiao-e-religiao.ghtml</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/12/07170347/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-dezembro-2021.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/pesquisa-ipespe-avaliacao-presidencial-eleicao-2022-marco-2o-quinzena/</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/pesquisa-ipespe-avaliacao-presidencial-eleicao-2022-abril-1o-quinzena/</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/pesquisa-ipespe-avaliacao-presidencial-eleicao-2022-abril-2a-quinzena/</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/pesquisa-ipespe-eleitor-e-favoravel-a-privatizacao-da-petrobras-se-precos-cairem-cenario-eleitoral-segue-estavel/</t>
   </si>
 </sst>
 </file>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C92C1-C3AC-4211-A17B-064591163E9B}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,28 +505,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -563,45 +575,45 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44573</v>
+        <v>44551</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="D3">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="E3">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F3">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J3">
         <v>0.04</v>
       </c>
       <c r="K3">
-        <v>2000</v>
+        <v>2037</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44598</v>
+        <v>44573</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -613,13 +625,13 @@
         <v>0.23</v>
       </c>
       <c r="E4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H4">
         <v>0.03</v>
@@ -628,124 +640,124 @@
         <v>0.08</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
         <v>2000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44615</v>
+        <v>44598</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="D5">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="E5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.02</v>
+      </c>
+      <c r="H5">
+        <v>0.03</v>
+      </c>
+      <c r="I5">
         <v>0.08</v>
       </c>
-      <c r="F5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.03</v>
-      </c>
-      <c r="H5">
-        <v>0.04</v>
-      </c>
-      <c r="I5">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="J5">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="K5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44633</v>
+        <v>44615</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="D6">
         <v>0.26</v>
       </c>
       <c r="E6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G6">
+        <v>0.03</v>
+      </c>
+      <c r="H6">
+        <v>0.04</v>
+      </c>
+      <c r="I6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6">
         <v>0.02</v>
       </c>
-      <c r="H6">
-        <v>0.03</v>
-      </c>
-      <c r="I6">
-        <v>0.06</v>
-      </c>
-      <c r="J6">
-        <v>0.05</v>
-      </c>
       <c r="K6">
-        <v>2000</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
+        <v>1000</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44643</v>
+        <v>44633</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="D7">
         <v>0.26</v>
       </c>
       <c r="E7">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F7">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G7">
         <v>0.02</v>
       </c>
       <c r="H7">
+        <v>0.03</v>
+      </c>
+      <c r="I7">
+        <v>0.06</v>
+      </c>
+      <c r="J7">
         <v>0.05</v>
       </c>
-      <c r="I7">
-        <v>0.08</v>
-      </c>
-      <c r="J7">
-        <v>0.02</v>
-      </c>
       <c r="K7">
-        <v>2556</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="s">
         <v>9</v>
@@ -753,19 +765,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44658</v>
+        <v>44643</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="D8">
-        <v>0.31</v>
+        <v>0.26</v>
+      </c>
+      <c r="E8">
+        <v>0.09</v>
       </c>
       <c r="F8">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G8">
         <v>0.02</v>
@@ -774,65 +789,68 @@
         <v>0.04</v>
       </c>
       <c r="I8">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J8">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="K8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44662</v>
+        <v>44643</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="D9">
-        <v>0.31</v>
+        <v>0.26</v>
+      </c>
+      <c r="E9">
+        <v>0.08</v>
       </c>
       <c r="F9">
+        <v>0.06</v>
+      </c>
+      <c r="G9">
+        <v>0.02</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
         <v>0.08</v>
       </c>
-      <c r="G9">
-        <v>0.03</v>
-      </c>
-      <c r="H9">
-        <v>0.04</v>
-      </c>
-      <c r="I9">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="J9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K9">
-        <v>1000</v>
+        <v>2556</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44676</v>
+        <v>44656</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="D10">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
         <v>0.09</v>
@@ -841,147 +859,284 @@
         <v>0.03</v>
       </c>
       <c r="H10">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J10">
         <v>0.03</v>
       </c>
       <c r="K10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44685</v>
+        <v>44658</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="D11">
         <v>0.31</v>
       </c>
       <c r="F11">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G11">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H11">
         <v>0.04</v>
       </c>
       <c r="I11">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J11">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44689</v>
+        <v>44671</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="D12">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="F12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G12">
         <v>0.03</v>
       </c>
       <c r="H12">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I12">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12">
         <v>0.03</v>
       </c>
       <c r="K12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44789</v>
+        <v>44676</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0.41</v>
+      </c>
+      <c r="D13">
+        <v>0.32</v>
+      </c>
+      <c r="F13">
+        <v>0.09</v>
+      </c>
+      <c r="G13">
+        <v>0.03</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.03</v>
+      </c>
+      <c r="K13">
+        <v>2000</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44836</v>
+        <v>44685</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.44</v>
+      </c>
+      <c r="D14">
+        <v>0.31</v>
+      </c>
+      <c r="F14">
+        <v>0.08</v>
+      </c>
+      <c r="G14">
+        <v>0.03</v>
+      </c>
+      <c r="H14">
+        <v>0.04</v>
+      </c>
+      <c r="I14">
+        <v>0.08</v>
+      </c>
+      <c r="J14">
+        <v>0.02</v>
+      </c>
+      <c r="K14">
+        <v>1000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44699</v>
+        <v>44689</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="D15">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F15">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G15">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H15">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I15">
         <v>0.06</v>
       </c>
       <c r="J15">
+        <v>0.03</v>
+      </c>
+      <c r="K15">
+        <v>2000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44836</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0.44</v>
+      </c>
+      <c r="D18">
+        <v>0.32</v>
+      </c>
+      <c r="F18">
+        <v>0.08</v>
+      </c>
+      <c r="G18">
+        <v>0.04</v>
+      </c>
+      <c r="H18">
+        <v>0.04</v>
+      </c>
+      <c r="I18">
+        <v>0.06</v>
+      </c>
+      <c r="J18">
         <v>0.02</v>
       </c>
-      <c r="K15">
+      <c r="K18">
         <v>1000</v>
       </c>
-      <c r="L15" t="s">
-        <v>22</v>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.48</v>
+      </c>
+      <c r="D19">
+        <v>0.27</v>
+      </c>
+      <c r="F19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.06</v>
+      </c>
+      <c r="I19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.04</v>
+      </c>
+      <c r="K19">
+        <v>2556</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{84E13F28-D4CA-4CF8-B60E-1A46407B1DC2}"/>
-    <hyperlink ref="L4" r:id="rId2" xr:uid="{9CF52C45-776A-46CF-92FD-0CEB92FB1C9A}"/>
-    <hyperlink ref="L5" r:id="rId3" xr:uid="{8ADFDE3C-5FF9-4FC7-9BAD-5BFD5CA734EF}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{9CF52C45-776A-46CF-92FD-0CEB92FB1C9A}"/>
+    <hyperlink ref="L6" r:id="rId3" xr:uid="{8ADFDE3C-5FF9-4FC7-9BAD-5BFD5CA734EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
